--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Zoo</t>
+          <t>Tour</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Museum</t>
+          <t>Tour</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>art_gallery</t>
+          <t>Tour</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Park</t>
+          <t>Walks and Free Conversations</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
